--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice\GLCM_recognition\GLCM_recognition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice\GLCM_recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6:AC6"/>
+    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.2" x14ac:dyDescent="0.3"/>
@@ -14930,24 +14930,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6:AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.2" x14ac:dyDescent="0.3"/>
@@ -847,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="R1" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>94</v>
@@ -967,40 +967,40 @@
         <v>11</v>
       </c>
       <c r="R3" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S3" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T3" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U3" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V3" s="1">
+        <v>16</v>
+      </c>
+      <c r="W3" s="2">
         <v>11</v>
-      </c>
-      <c r="W3" s="2">
-        <v>10</v>
       </c>
       <c r="X3" s="1">
         <v>38</v>
       </c>
       <c r="Y3" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="1">
         <v>32</v>
       </c>
       <c r="AA3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
@@ -1048,22 +1048,22 @@
         <v>3</v>
       </c>
       <c r="R4" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S4" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T4" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U4" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V4" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W4" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X4" s="3">
         <v>2</v>
@@ -1072,13 +1072,13 @@
         <v>7</v>
       </c>
       <c r="Z4" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA4" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB4" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC4" s="4">
         <v>7</v>
@@ -1129,40 +1129,40 @@
         <v>4</v>
       </c>
       <c r="R5" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S5" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T5" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U5" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V5" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="W5" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X5" s="3">
         <v>38</v>
       </c>
       <c r="Y5" s="4">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Z5" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA5" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB5" s="3">
         <v>22</v>
       </c>
       <c r="AC5" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="14.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1212,40 +1212,40 @@
         <v>5</v>
       </c>
       <c r="R6" s="5">
+        <v>12</v>
+      </c>
+      <c r="S6" s="6">
         <v>8</v>
       </c>
-      <c r="S6" s="6">
-        <v>7</v>
-      </c>
       <c r="T6" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U6" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V6" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W6" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X6" s="5">
         <v>38</v>
       </c>
       <c r="Y6" s="6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z6" s="5">
         <v>32</v>
       </c>
       <c r="AA6" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB6" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC6" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
@@ -1481,7 +1481,7 @@
         <v>0.17086073825503359</v>
       </c>
       <c r="V11" s="1">
-        <v>9.0273861238120853E-2</v>
+        <v>7.040424708778989E-2</v>
       </c>
       <c r="W11" s="2">
         <v>0.18398993288590604</v>
@@ -1562,7 +1562,7 @@
         <v>0.67449211562827882</v>
       </c>
       <c r="V12" s="3">
-        <v>0.8249120441466774</v>
+        <v>0.85548053689899961</v>
       </c>
       <c r="W12" s="4">
         <v>0.71498096481166673</v>
@@ -1635,7 +1635,7 @@
         <v>0.48149030854466013</v>
       </c>
       <c r="V13" s="3">
-        <v>0.50521858164530165</v>
+        <v>0.48551030920766147</v>
       </c>
       <c r="W13" s="4">
         <v>0.43898688139047792</v>
@@ -1718,7 +1718,7 @@
         <v>0.92584317873122379</v>
       </c>
       <c r="V14" s="5">
-        <v>0.95602034190882024</v>
+        <v>0.96577162074951795</v>
       </c>
       <c r="W14" s="6">
         <v>0.92176034675615204</v>
